--- a/DIC/Lab2/Task5/summary.xlsx
+++ b/DIC/Lab2/Task5/summary.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.088e-10</v>
+        <v>2.093e-10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.643e-11</v>
+        <v>4.586e-11</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.196e-11</v>
+        <v>3.167e-11</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.963e-11</v>
+        <v>2.917e-11</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.912e-11</v>
+        <v>2.917e-11</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.034e-11</v>
+        <v>3.006e-11</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.182e-11</v>
+        <v>3.155e-11</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.302e-11</v>
+        <v>3.331e-11</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.487e-11</v>
+        <v>3.529e-11</v>
       </c>
     </row>
   </sheetData>
